--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV160-001 - Investasi - Reksadana - Pembatalan Switching.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV160-001 - Investasi - Reksadana - Pembatalan Switching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1922D-0A2D-41D9-99B4-26FEFF83903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD4040E-C248-45CF-87A0-A3A322809003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,18 +100,18 @@
     <t>Analisis Investasi</t>
   </si>
   <si>
-    <t>SWRKS202200005</t>
+    <t>SWITCHING_ID</t>
+  </si>
+  <si>
+    <t>SWRKS202200007</t>
   </si>
   <si>
     <t>Username : 34011;
 Password : bni1234;
 Role : 20 - Analis Investasi;
-Deviden : SWRKS202200005;
+Deviden : SWRKS202200007;
 Tgl. Pengajuan : 16/08/2022;
 Keterangan : INV.RKS.TRX.004 AJUKAN BATAL</t>
-  </si>
-  <si>
-    <t>SWITCHING_ID</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>34011</v>
@@ -610,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="4">
         <v>44789</v>
